--- a/conf/projects.xlsx
+++ b/conf/projects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2820" yWindow="5780" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,287 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>project1</t>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>imageName</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>西港雅苑</t>
+  </si>
+  <si>
+    <t>xigangyayuan.jpg</t>
+  </si>
+  <si>
+    <t>恒大城</t>
+  </si>
+  <si>
+    <t>hengdacheng.jpg</t>
+  </si>
+  <si>
+    <t>averagePrice</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>pulishDate</t>
+  </si>
+  <si>
+    <t>普通住宅</t>
+  </si>
+  <si>
+    <t>高新丈八北路和大寨路十字西200米</t>
+  </si>
+  <si>
+    <t>陕西金泓投资有限公司</t>
+  </si>
+  <si>
+    <t>高新丈八四路和锦业一路交叉口</t>
+  </si>
+  <si>
+    <t>西部机场建设集团</t>
+  </si>
+  <si>
+    <t>4008882200</t>
+  </si>
+  <si>
+    <t>6500</t>
+  </si>
+  <si>
+    <t>2009-12-10</t>
+  </si>
+  <si>
+    <t>紫薇希望城</t>
+  </si>
+  <si>
+    <t>ziweixiwangcheng.jpg</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>‘40066066969</t>
+  </si>
+  <si>
+    <t>紫薇地产</t>
+  </si>
+  <si>
+    <t>2010-05-01</t>
+  </si>
+  <si>
+    <t>2019-12-12</t>
+  </si>
+  <si>
+    <t>城北凤城五路未央路与太华北路之间</t>
+  </si>
+  <si>
+    <t>曲江风景线</t>
+  </si>
+  <si>
+    <t>qujiangfengjingxian.jpg</t>
+  </si>
+  <si>
+    <t>曲江芙蓉东路与芙蓉南路交汇处</t>
+  </si>
+  <si>
+    <t>4006080828</t>
+  </si>
+  <si>
+    <t>西安瑞昌房产有限责任公司</t>
+  </si>
+  <si>
+    <t>2012-10-01</t>
+  </si>
+  <si>
+    <t>兰蒂斯城</t>
+  </si>
+  <si>
+    <t>landisicheng.jpg</t>
+  </si>
+  <si>
+    <t>8500</t>
+  </si>
+  <si>
+    <t>兴庆路中段交大东门对面</t>
+  </si>
+  <si>
+    <t>400123123</t>
+  </si>
+  <si>
+    <t>西安永德隆房产有限公司</t>
+  </si>
+  <si>
+    <t>2011-09-29</t>
+  </si>
+  <si>
+    <t>chanbabandao.jpg</t>
+  </si>
+  <si>
+    <t>浐灞半岛</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浐灞大道与浐河交界处向东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米</t>
+    </r>
+  </si>
+  <si>
+    <t>’400987789</t>
+  </si>
+  <si>
+    <t>西安中新荣景房地产</t>
+  </si>
+  <si>
+    <t>‘2011-11-23</t>
+  </si>
+  <si>
+    <t>紫薇田园都市</t>
+  </si>
+  <si>
+    <t>ziweitianyuandushi.jpg</t>
+  </si>
+  <si>
+    <t>西安市南郊西沣一级公路西侧</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>5800</t>
+  </si>
+  <si>
+    <t>4008444293</t>
+  </si>
+  <si>
+    <t>西安紫薇地产开发有限公司</t>
+  </si>
+  <si>
+    <t>2002-07-28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,13 +319,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,32 +706,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5">
+        <v>34.246433000000003</v>
+      </c>
+      <c r="C2" s="5">
+        <v>108.86695899999999</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>34.192422999999998</v>
+      </c>
+      <c r="C3" s="5">
+        <v>108.870649</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>34.343435999999997</v>
+      </c>
+      <c r="C4" s="6">
+        <v>108.951373</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="17">
+        <v>34.206408000000003</v>
+      </c>
+      <c r="C5" s="6">
+        <v>108.991241</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="20">
+        <v>34.254626999999999</v>
+      </c>
+      <c r="C6" s="17">
+        <v>108.99767900000001</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="17">
+        <v>34.312815999999998</v>
+      </c>
+      <c r="C7" s="6">
+        <v>109.04342699999999</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19">
+      <c r="A8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="17">
+        <v>34.177227999999999</v>
+      </c>
+      <c r="C8" s="17">
+        <v>108.876572</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
